--- a/pred_ohlcv/54_21/2020-01-14 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 FCT ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3962302.4671</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1802458.0113</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3794951.7083</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3794891.3351</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3796976.8447</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3806690.8691</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3931576.942300001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3921496.093100001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3933743.259100001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4350520.531900001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4370152.665200002</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4495910.313200001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4302460.313200001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4082540.771300001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3911478.771300001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3947081.953600001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3947067.953600001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3968106.111800001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3985915.3646</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3659159.3978</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3663237.1313</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3667115.784700001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3666115.784700001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3673074.794000001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3672552.718900001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3680341.047200001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3681327.047200001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3800933.093400002</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3947670.4045</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2802608.0113</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3834067.5472</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3780895.1682</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3794971.7083</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3794951.7083</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3794891.3351</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3796976.8447</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3806690.8691</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3796976.8446</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3805032.0766</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3845855.9633</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3855929.3177</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3883881.656400001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3883881.656400001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3896088.509900001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3931576.942300001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-3921496.093100001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3933743.259100001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4234814.058000001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4291122.243300001</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4307113.175900001</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4259859.182600001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4292645.4564</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4292446.7445</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4350520.531900001</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4367957.355100001</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4367883.844700001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4480402.899600001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4495910.313200001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4302460.313200001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4082540.771300001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3911478.771300001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3947081.953600001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3947067.953600001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3968106.111800001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3985915.3646</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3659159.3978</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3663237.1313</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3667115.784700001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3666115.784700001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3673074.794000001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3672552.718900001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3680341.047200001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3680327.047200001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3681327.047200001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3742567.445100001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3800933.093400002</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
